--- a/config/testcases/Report_End lesson.xlsx
+++ b/config/testcases/Report_End lesson.xlsx
@@ -118,7 +118,7 @@
     <t>clickWhichDisplay</t>
   </si>
   <si>
-    <t>MX171(Clone)/ButtonClose,Button,onClick(),10</t>
+    <t>MX171(Clone)/ButtonClose,Button,onClick()</t>
   </si>
   <si>
     <t>Kiểm tra màn hình map</t>
@@ -6802,7 +6802,10 @@
       <c r="Z150" s="31"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="31"/>
+      <c r="A151" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextAlphabetAndNumber")</f>
+        <v>getTextAlphabetAndNumber</v>
+      </c>
       <c r="B151" s="31"/>
       <c r="C151" s="31"/>
       <c r="D151" s="31"/>
